--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N2">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q2">
-        <v>50.42616061728201</v>
+        <v>0.02813073440833334</v>
       </c>
       <c r="R2">
-        <v>50.42616061728201</v>
+        <v>0.253176609675</v>
       </c>
       <c r="S2">
-        <v>0.09814638657569381</v>
+        <v>4.482386673669379E-05</v>
       </c>
       <c r="T2">
-        <v>0.09814638657569381</v>
+        <v>4.482386673669378E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q3">
-        <v>135.3732469070938</v>
+        <v>0.06537011753611111</v>
       </c>
       <c r="R3">
-        <v>135.3732469070938</v>
+        <v>0.5883310578249999</v>
       </c>
       <c r="S3">
-        <v>0.2634821858398034</v>
+        <v>0.0001041615691388647</v>
       </c>
       <c r="T3">
-        <v>0.2634821858398034</v>
+        <v>0.0001041615691388647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N4">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q4">
-        <v>87.0492853577754</v>
+        <v>0.04412893417777778</v>
       </c>
       <c r="R4">
-        <v>87.0492853577754</v>
+        <v>0.3971604076</v>
       </c>
       <c r="S4">
-        <v>0.1694273906099062</v>
+        <v>7.031559987396133E-05</v>
       </c>
       <c r="T4">
-        <v>0.1694273906099062</v>
+        <v>7.031559987396133E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H5">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N5">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q5">
-        <v>117.8221318708606</v>
+        <v>0.05757330068888889</v>
       </c>
       <c r="R5">
-        <v>117.8221318708606</v>
+        <v>0.5181597062</v>
       </c>
       <c r="S5">
-        <v>0.2293217718782009</v>
+        <v>9.173802291154805E-05</v>
       </c>
       <c r="T5">
-        <v>0.2293217718782009</v>
+        <v>9.173802291154803E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H6">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N6">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q6">
-        <v>42.63205979167861</v>
+        <v>0.02082269705833333</v>
       </c>
       <c r="R6">
-        <v>42.63205979167861</v>
+        <v>0.187404273525</v>
       </c>
       <c r="S6">
-        <v>0.08297642671209401</v>
+        <v>3.317914792031829E-05</v>
       </c>
       <c r="T6">
-        <v>0.08297642671209401</v>
+        <v>3.317914792031828E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.002991666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.008975</v>
+      </c>
+      <c r="I7">
+        <v>0.0004153486577782517</v>
+      </c>
+      <c r="J7">
+        <v>0.0004153486577782517</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.921556</v>
+      </c>
+      <c r="N7">
+        <v>44.764668</v>
+      </c>
+      <c r="O7">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="P7">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="Q7">
+        <v>0.04464032170000001</v>
+      </c>
+      <c r="R7">
+        <v>0.4017628953</v>
+      </c>
+      <c r="S7">
+        <v>7.113045119686553E-05</v>
+      </c>
+      <c r="T7">
+        <v>7.113045119686552E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H8">
+        <v>21.358999</v>
+      </c>
+      <c r="I8">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J8">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.403031</v>
+      </c>
+      <c r="N8">
+        <v>28.209093</v>
+      </c>
+      <c r="O8">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="P8">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="Q8">
+        <v>66.94644324198967</v>
+      </c>
+      <c r="R8">
+        <v>602.517989177907</v>
+      </c>
+      <c r="S8">
+        <v>0.1066733063849778</v>
+      </c>
+      <c r="T8">
+        <v>0.1066733063849778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H9">
+        <v>21.358999</v>
+      </c>
+      <c r="I9">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J9">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>21.85073566666667</v>
+      </c>
+      <c r="N9">
+        <v>65.552207</v>
+      </c>
+      <c r="O9">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="P9">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="Q9">
+        <v>155.5699470845325</v>
+      </c>
+      <c r="R9">
+        <v>1400.129523760793</v>
+      </c>
+      <c r="S9">
+        <v>0.2478871143259546</v>
+      </c>
+      <c r="T9">
+        <v>0.2478871143259546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H10">
+        <v>21.358999</v>
+      </c>
+      <c r="I10">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J10">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.75061866666667</v>
+      </c>
+      <c r="N10">
+        <v>44.251856</v>
+      </c>
+      <c r="O10">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="P10">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="Q10">
+        <v>105.0194831169049</v>
+      </c>
+      <c r="R10">
+        <v>945.1753480521442</v>
+      </c>
+      <c r="S10">
+        <v>0.1673393679545783</v>
+      </c>
+      <c r="T10">
+        <v>0.1673393679545783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H11">
+        <v>21.358999</v>
+      </c>
+      <c r="I11">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J11">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.24455733333333</v>
+      </c>
+      <c r="N11">
+        <v>57.733672</v>
+      </c>
+      <c r="O11">
+        <v>0.2208699154157989</v>
+      </c>
+      <c r="P11">
+        <v>0.2208699154157988</v>
+      </c>
+      <c r="Q11">
+        <v>137.0148269460365</v>
+      </c>
+      <c r="R11">
+        <v>1233.133442514328</v>
+      </c>
+      <c r="S11">
+        <v>0.218321152047881</v>
+      </c>
+      <c r="T11">
+        <v>0.2183211520478809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.19768550803245</v>
-      </c>
-      <c r="H7">
-        <v>6.19768550803245</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.9858659201119</v>
-      </c>
-      <c r="N7">
-        <v>12.9858659201119</v>
-      </c>
-      <c r="O7">
-        <v>0.1566458383843017</v>
-      </c>
-      <c r="P7">
-        <v>0.1566458383843017</v>
-      </c>
-      <c r="Q7">
-        <v>80.48231302232999</v>
-      </c>
-      <c r="R7">
-        <v>80.48231302232999</v>
-      </c>
-      <c r="S7">
-        <v>0.1566458383843017</v>
-      </c>
-      <c r="T7">
-        <v>0.1566458383843017</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H12">
+        <v>21.358999</v>
+      </c>
+      <c r="I12">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J12">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.960233</v>
+      </c>
+      <c r="N12">
+        <v>20.880699</v>
+      </c>
+      <c r="O12">
+        <v>0.07988264148437944</v>
+      </c>
+      <c r="P12">
+        <v>0.07988264148437943</v>
+      </c>
+      <c r="Q12">
+        <v>49.55453656225567</v>
+      </c>
+      <c r="R12">
+        <v>445.990829060301</v>
+      </c>
+      <c r="S12">
+        <v>0.07896082309202566</v>
+      </c>
+      <c r="T12">
+        <v>0.07896082309202565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H13">
+        <v>21.358999</v>
+      </c>
+      <c r="I13">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J13">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.921556</v>
+      </c>
+      <c r="N13">
+        <v>44.764668</v>
+      </c>
+      <c r="O13">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="P13">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="Q13">
+        <v>106.236499894148</v>
+      </c>
+      <c r="R13">
+        <v>956.1284990473321</v>
+      </c>
+      <c r="S13">
+        <v>0.1692785778254484</v>
+      </c>
+      <c r="T13">
+        <v>0.1692785778254484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.027522</v>
+      </c>
+      <c r="H14">
+        <v>0.082566</v>
+      </c>
+      <c r="I14">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J14">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.403031</v>
+      </c>
+      <c r="N14">
+        <v>28.209093</v>
+      </c>
+      <c r="O14">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="P14">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="Q14">
+        <v>0.258790219182</v>
+      </c>
+      <c r="R14">
+        <v>2.329111972638</v>
+      </c>
+      <c r="S14">
+        <v>0.000412359596766781</v>
+      </c>
+      <c r="T14">
+        <v>0.0004123595967667808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.027522</v>
+      </c>
+      <c r="H15">
+        <v>0.082566</v>
+      </c>
+      <c r="I15">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J15">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.85073566666667</v>
+      </c>
+      <c r="N15">
+        <v>65.552207</v>
+      </c>
+      <c r="O15">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="P15">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="Q15">
+        <v>0.601375947018</v>
+      </c>
+      <c r="R15">
+        <v>5.412383523162</v>
+      </c>
+      <c r="S15">
+        <v>0.0009582400130940953</v>
+      </c>
+      <c r="T15">
+        <v>0.0009582400130940953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.027522</v>
+      </c>
+      <c r="H16">
+        <v>0.082566</v>
+      </c>
+      <c r="I16">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J16">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.75061866666667</v>
+      </c>
+      <c r="N16">
+        <v>44.251856</v>
+      </c>
+      <c r="O16">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="P16">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="Q16">
+        <v>0.405966526944</v>
+      </c>
+      <c r="R16">
+        <v>3.653698742496</v>
+      </c>
+      <c r="S16">
+        <v>0.000646872180411531</v>
+      </c>
+      <c r="T16">
+        <v>0.0006468721804115309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.027522</v>
+      </c>
+      <c r="H17">
+        <v>0.082566</v>
+      </c>
+      <c r="I17">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J17">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.24455733333333</v>
+      </c>
+      <c r="N17">
+        <v>57.733672</v>
+      </c>
+      <c r="O17">
+        <v>0.2208699154157989</v>
+      </c>
+      <c r="P17">
+        <v>0.2208699154157988</v>
+      </c>
+      <c r="Q17">
+        <v>0.529648706928</v>
+      </c>
+      <c r="R17">
+        <v>4.766838362352</v>
+      </c>
+      <c r="S17">
+        <v>0.0008439489247593176</v>
+      </c>
+      <c r="T17">
+        <v>0.0008439489247593175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.027522</v>
+      </c>
+      <c r="H18">
+        <v>0.082566</v>
+      </c>
+      <c r="I18">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J18">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.960233</v>
+      </c>
+      <c r="N18">
+        <v>20.880699</v>
+      </c>
+      <c r="O18">
+        <v>0.07988264148437944</v>
+      </c>
+      <c r="P18">
+        <v>0.07988264148437943</v>
+      </c>
+      <c r="Q18">
+        <v>0.191559532626</v>
+      </c>
+      <c r="R18">
+        <v>1.724035793634</v>
+      </c>
+      <c r="S18">
+        <v>0.0003052333735029526</v>
+      </c>
+      <c r="T18">
+        <v>0.0003052333735029525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.027522</v>
+      </c>
+      <c r="H19">
+        <v>0.082566</v>
+      </c>
+      <c r="I19">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J19">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.921556</v>
+      </c>
+      <c r="N19">
+        <v>44.764668</v>
+      </c>
+      <c r="O19">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="P19">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="Q19">
+        <v>0.4106710642320001</v>
+      </c>
+      <c r="R19">
+        <v>3.696039578088</v>
+      </c>
+      <c r="S19">
+        <v>0.0006543684494173147</v>
+      </c>
+      <c r="T19">
+        <v>0.0006543684494173146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.052604</v>
+      </c>
+      <c r="H20">
+        <v>0.157812</v>
+      </c>
+      <c r="I20">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J20">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.403031</v>
+      </c>
+      <c r="N20">
+        <v>28.209093</v>
+      </c>
+      <c r="O20">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="P20">
+        <v>0.1079186507462474</v>
+      </c>
+      <c r="Q20">
+        <v>0.4946370427240001</v>
+      </c>
+      <c r="R20">
+        <v>4.451733384516</v>
+      </c>
+      <c r="S20">
+        <v>0.0007881608977661416</v>
+      </c>
+      <c r="T20">
+        <v>0.0007881608977661414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.052604</v>
+      </c>
+      <c r="H21">
+        <v>0.157812</v>
+      </c>
+      <c r="I21">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J21">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>21.85073566666667</v>
+      </c>
+      <c r="N21">
+        <v>65.552207</v>
+      </c>
+      <c r="O21">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="P21">
+        <v>0.2507810418746436</v>
+      </c>
+      <c r="Q21">
+        <v>1.149436099009333</v>
+      </c>
+      <c r="R21">
+        <v>10.344924891084</v>
+      </c>
+      <c r="S21">
+        <v>0.001831525966455991</v>
+      </c>
+      <c r="T21">
+        <v>0.001831525966455991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.052604</v>
+      </c>
+      <c r="H22">
+        <v>0.157812</v>
+      </c>
+      <c r="I22">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J22">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.75061866666667</v>
+      </c>
+      <c r="N22">
+        <v>44.251856</v>
+      </c>
+      <c r="O22">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="P22">
+        <v>0.1692929507707757</v>
+      </c>
+      <c r="Q22">
+        <v>0.7759415443413334</v>
+      </c>
+      <c r="R22">
+        <v>6.983473899072001</v>
+      </c>
+      <c r="S22">
+        <v>0.001236395035911932</v>
+      </c>
+      <c r="T22">
+        <v>0.001236395035911931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.052604</v>
+      </c>
+      <c r="H23">
+        <v>0.157812</v>
+      </c>
+      <c r="I23">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J23">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.24455733333333</v>
+      </c>
+      <c r="N23">
+        <v>57.733672</v>
+      </c>
+      <c r="O23">
+        <v>0.2208699154157989</v>
+      </c>
+      <c r="P23">
+        <v>0.2208699154157988</v>
+      </c>
+      <c r="Q23">
+        <v>1.012340693962667</v>
+      </c>
+      <c r="R23">
+        <v>9.111066245664</v>
+      </c>
+      <c r="S23">
+        <v>0.001613076420247044</v>
+      </c>
+      <c r="T23">
+        <v>0.001613076420247044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.052604</v>
+      </c>
+      <c r="H24">
+        <v>0.157812</v>
+      </c>
+      <c r="I24">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J24">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.960233</v>
+      </c>
+      <c r="N24">
+        <v>20.880699</v>
+      </c>
+      <c r="O24">
+        <v>0.07988264148437944</v>
+      </c>
+      <c r="P24">
+        <v>0.07988264148437943</v>
+      </c>
+      <c r="Q24">
+        <v>0.366136096732</v>
+      </c>
+      <c r="R24">
+        <v>3.295224870588</v>
+      </c>
+      <c r="S24">
+        <v>0.0005834058709305037</v>
+      </c>
+      <c r="T24">
+        <v>0.0005834058709305036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.052604</v>
+      </c>
+      <c r="H25">
+        <v>0.157812</v>
+      </c>
+      <c r="I25">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J25">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.921556</v>
+      </c>
+      <c r="N25">
+        <v>44.764668</v>
+      </c>
+      <c r="O25">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="P25">
+        <v>0.171254799708155</v>
+      </c>
+      <c r="Q25">
+        <v>0.7849335318240002</v>
+      </c>
+      <c r="R25">
+        <v>7.064401786416</v>
+      </c>
+      <c r="S25">
+        <v>0.00125072298209245</v>
+      </c>
+      <c r="T25">
+        <v>0.00125072298209245</v>
       </c>
     </row>
   </sheetData>
